--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>47e8cdbc-1c87-45b9-9559-9e811f357217</t>
+    <t>79cc2bd6-823c-40ef-958d-48bebd4d97d2</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>79cc2bd6-823c-40ef-958d-48bebd4d97d2</t>
+    <t>c96847b5-b56e-452c-92cc-f695f54056a4</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>c96847b5-b56e-452c-92cc-f695f54056a4</t>
+    <t>89600b4e-14dd-4f15-893d-a2e0eb347ad3</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>89600b4e-14dd-4f15-893d-a2e0eb347ad3</t>
+    <t>b23263c3-4da7-402c-acdf-34e13a1516b6</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>b23263c3-4da7-402c-acdf-34e13a1516b6</t>
+    <t>bd510503-a306-49b2-8364-ce05d21c45e0</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>

--- a/backend/storage/app/xlsx/seed_cidades_mt.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_mt.xlsx
@@ -23,7 +23,7 @@
     <t>ACORIZANO</t>
   </si>
   <si>
-    <t>bd510503-a306-49b2-8364-ce05d21c45e0</t>
+    <t>111d5b5d-ce47-4244-b862-8d969aefc23c</t>
   </si>
   <si>
     <t>ÁGUA BOA</t>
